--- a/biology/Biologie cellulaire et moléculaire/Ectodysplasine/Ectodysplasine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Ectodysplasine/Ectodysplasine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'ectodysplasine-A ou EDA est une protéine membranaire de type II qui appartient à la famille des facteurs suppresseurs de tumeurs et qui agit dans la signalisation entre cellules en particulier dans le développement des organes de l'ectoderme, tels que les glandes sudoripares, les follicules pileux, les ongles ou les dents[3]. Son gène est le EDA situé sur le chromosome X humain.
+L'ectodysplasine-A ou EDA est une protéine membranaire de type II qui appartient à la famille des facteurs suppresseurs de tumeurs et qui agit dans la signalisation entre cellules en particulier dans le développement des organes de l'ectoderme, tels que les glandes sudoripares, les follicules pileux, les ongles ou les dents. Son gène est le EDA situé sur le chromosome X humain.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mutation du gène entraîne une dysplasie ectodermale avec anhydrose liée à l'X[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mutation du gène entraîne une dysplasie ectodermale avec anhydrose liée à l'X.
 </t>
         </is>
       </c>
